--- a/table.xlsx
+++ b/table.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F884"/>
+  <dimension ref="A1:G884"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>paragraph</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>solution</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -507,6 +512,11 @@
       <c r="F2" t="n">
         <v>2</v>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Ученик токаря обточил 120 деталей. Токарь обточил на 36 деталей больше, чем ученик, то есть 120 + 36 = 156 деталей.\n\nЧтобы узнать, сколько деталей обточили токарь и его ученик вместе, нужно сложить количество деталей, обточенных каждым из них: 120 + 156 = 276 деталей.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -535,6 +545,11 @@
       <c r="F3" t="n">
         <v>2</v>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>От Петрозаводска до Мурманска на 643 км больше, чем от Санкт-Петербурга до Петрозаводска. Значит, расстояние от Петрозаводска до Мурманска составляет:\n\n401 + 643 = 1044 (км).\n\nОтвет: от Санкт-Петербурга до Мурманска через Петрозаводск — 1044 км.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -586,6 +601,11 @@
       <c r="F5" t="n">
         <v>2</v>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Пусть общее количество страниц в книге равно $x$.\n\nМальчик прочитал 42 страницы, и ему осталось прочитать на 8 страниц меньше, чем он уже прочитал. То есть, ему осталось прочитать $42 - 8 = 34$ страницы.\n\nСоставим уравнение:\n\n$42 + 34 = x$\n\nРешим уравнение:\n\n$76 = x$\n\nОтвет: в книге 76 страниц.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -614,6 +634,11 @@
       <c r="F6" t="n">
         <v>2</v>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1. Найдём количество иностранных марок: 128 – 93 = 35.\n2. Найдём разницу между количеством российских и иностранных марок: 93 – 35 = 58.\n\nОтвет: на 58 российских марок в коллекции больше, чем иностранных.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -642,6 +667,11 @@
       <c r="F7" t="n">
         <v>2</v>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>За вторую неделю бригада собрала 113 – 54 = 59 тонн картофеля.\n\nЧтобы узнать, на сколько тонн меньше собрано картофеля в первую неделю, чем во вторую, нужно из количества картофеля, собранного во вторую неделю, вычесть количество картофеля, собранного в первую неделю:\n\n59 – 54 = 5 (тонн).\n\nОтвет: во вторую неделю собрано на 5 тонн картофеля больше, чем в первую.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -670,6 +700,11 @@
       <c r="F8" t="n">
         <v>2</v>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>За октябрь было выпущено 193 – 98 = 95 станков.\n\nБольше станков было выпущено в октябре, на 95 – 98 = –3 станка меньше было выпущено в сентябре.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -698,6 +733,11 @@
       <c r="F9" t="n">
         <v>2</v>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>За второй день туристы прошли 24 – 3 = 21 км.\n\nЧтобы узнать, сколько километров им осталось пройти в третий день, нужно из общего расстояния за три дня вычесть расстояние, пройденное за первый и второй дни:\n\n65 – (24 + 21) = 65 – 45 = 20 (км).\n\n**Ответ:** туристам осталось пройти 20 километров в третий день.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -726,6 +766,11 @@
       <c r="F10" t="n">
         <v>2</v>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1. За первый месяц израсходовали 225 м ткани.\n2. За второй месяц израсходовали на 23 м больше, чем за первый, то есть 225 + 23 = 248 м.\n3. Чтобы узнать, сколько метров ткани осталось, нужно из первоначального количества вычесть количество, израсходованное за два месяца: 900 − (225 + 248) = 900 − 473 = 427 (м).\n\nОтвет: к концу второго месяца в швейной мастерской осталось 427 метров ткани.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -745,11 +790,6 @@
       </c>
       <c r="D11" t="n">
         <v>1</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Это в 3 раза меньше, чем 15</t>
-        </is>
       </c>
       <c r="F11" t="n">
         <v>2</v>
